--- a/arima_model_list.xlsx
+++ b/arima_model_list.xlsx
@@ -456,7 +456,7 @@
         <v>11</v>
       </c>
       <c r="D2">
-        <v>1646.474963482237</v>
+        <v>1618.615820991823</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -470,7 +470,7 @@
         <v>12</v>
       </c>
       <c r="D3">
-        <v>1300.237260140638</v>
+        <v>1272.488577166188</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -484,7 +484,7 @@
         <v>13</v>
       </c>
       <c r="D4">
-        <v>1265.610466154056</v>
+        <v>1234.357991547701</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>3018.498795732022</v>
+        <v>2558.604584554275</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -512,7 +512,7 @@
         <v>15</v>
       </c>
       <c r="D6">
-        <v>1290.368070266796</v>
+        <v>1255.876937868756</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -526,7 +526,7 @@
         <v>16</v>
       </c>
       <c r="D7">
-        <v>1257.292297692523</v>
+        <v>1222.628284314463</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -540,7 +540,7 @@
         <v>17</v>
       </c>
       <c r="D8">
-        <v>962.0063488420936</v>
+        <v>929.6085587944564</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -554,7 +554,7 @@
         <v>18</v>
       </c>
       <c r="D9">
-        <v>3034.149605153961</v>
+        <v>2872.152752377755</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -568,7 +568,7 @@
         <v>11</v>
       </c>
       <c r="D10">
-        <v>1579.168050249223</v>
+        <v>1551.895826151668</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -582,7 +582,7 @@
         <v>12</v>
       </c>
       <c r="D11">
-        <v>1237.428263018691</v>
+        <v>1209.913892218142</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -596,7 +596,7 @@
         <v>13</v>
       </c>
       <c r="D12">
-        <v>1206.788074959864</v>
+        <v>1178.144198444636</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -610,7 +610,7 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>2938.666532195764</v>
+        <v>2497.825194873089</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -624,7 +624,7 @@
         <v>15</v>
       </c>
       <c r="D14">
-        <v>1293.51384339331</v>
+        <v>1266.079077439187</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -638,7 +638,7 @@
         <v>16</v>
       </c>
       <c r="D15">
-        <v>1239.106868284094</v>
+        <v>1211.827708249475</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -652,7 +652,7 @@
         <v>17</v>
       </c>
       <c r="D16">
-        <v>937.4197910180037</v>
+        <v>909.1494959819829</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -666,7 +666,7 @@
         <v>18</v>
       </c>
       <c r="D17">
-        <v>2961.093664479576</v>
+        <v>2819.510384657697</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -680,7 +680,7 @@
         <v>11</v>
       </c>
       <c r="D18">
-        <v>1416.397722011629</v>
+        <v>1387.782795993306</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -694,7 +694,7 @@
         <v>12</v>
       </c>
       <c r="D19">
-        <v>1132.285100590266</v>
+        <v>1103.901855904819</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -708,7 +708,7 @@
         <v>13</v>
       </c>
       <c r="D20">
-        <v>1130.463159285478</v>
+        <v>1098.866380855831</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -722,7 +722,7 @@
         <v>14</v>
       </c>
       <c r="D21">
-        <v>2701.731693765363</v>
+        <v>2790.066911790148</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -736,7 +736,7 @@
         <v>15</v>
       </c>
       <c r="D22">
-        <v>1148.344228023235</v>
+        <v>1118.575034127981</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -750,7 +750,7 @@
         <v>16</v>
       </c>
       <c r="D23">
-        <v>1132.111393278071</v>
+        <v>1103.925585712788</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -764,7 +764,7 @@
         <v>17</v>
       </c>
       <c r="D24">
-        <v>856.8973764231342</v>
+        <v>826.5366135630441</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -778,7 +778,7 @@
         <v>18</v>
       </c>
       <c r="D25">
-        <v>2692.226719667468</v>
+        <v>2788.992402337493</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -792,7 +792,7 @@
         <v>11</v>
       </c>
       <c r="D26">
-        <v>1378.593034222783</v>
+        <v>1353.065096350361</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -806,7 +806,7 @@
         <v>12</v>
       </c>
       <c r="D27">
-        <v>1091.032817170073</v>
+        <v>1065.985202472359</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -820,7 +820,7 @@
         <v>13</v>
       </c>
       <c r="D28">
-        <v>1103.492650299962</v>
+        <v>1074.302123677992</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -834,7 +834,7 @@
         <v>14</v>
       </c>
       <c r="D29">
-        <v>2587.727184171209</v>
+        <v>2710.685874833829</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -848,7 +848,7 @@
         <v>15</v>
       </c>
       <c r="D30">
-        <v>1139.301304833859</v>
+        <v>1114.16515151439</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -862,7 +862,7 @@
         <v>16</v>
       </c>
       <c r="D31">
-        <v>1086.241273925547</v>
+        <v>1061.029471423993</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -876,7 +876,7 @@
         <v>17</v>
       </c>
       <c r="D32">
-        <v>850.6691894159915</v>
+        <v>823.7605781319508</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -890,7 +890,7 @@
         <v>18</v>
       </c>
       <c r="D33">
-        <v>2579.073282872821</v>
+        <v>2711.897908292387</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -904,7 +904,7 @@
         <v>11</v>
       </c>
       <c r="D34">
-        <v>1442.224319131291</v>
+        <v>1413.642318664059</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -918,7 +918,7 @@
         <v>12</v>
       </c>
       <c r="D35">
-        <v>1172.535825074292</v>
+        <v>1143.34384231403</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -932,7 +932,7 @@
         <v>13</v>
       </c>
       <c r="D36">
-        <v>1155.206084322423</v>
+        <v>1123.206308649597</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -946,7 +946,7 @@
         <v>14</v>
       </c>
       <c r="D37">
-        <v>2949.290185199698</v>
+        <v>2496.373208681066</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -960,7 +960,7 @@
         <v>15</v>
       </c>
       <c r="D38">
-        <v>1150.897929685244</v>
+        <v>1120.683094247293</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -974,7 +974,7 @@
         <v>16</v>
       </c>
       <c r="D39">
-        <v>1142.02016874381</v>
+        <v>1115.977840148632</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -988,7 +988,7 @@
         <v>17</v>
       </c>
       <c r="D40">
-        <v>860.1283226366899</v>
+        <v>829.509039843093</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1002,7 +1002,7 @@
         <v>18</v>
       </c>
       <c r="D41">
-        <v>2972.355665367379</v>
+        <v>2828.370823942598</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1016,7 +1016,7 @@
         <v>11</v>
       </c>
       <c r="D42">
-        <v>1404.266311084837</v>
+        <v>1378.785664195428</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1030,7 +1030,7 @@
         <v>12</v>
       </c>
       <c r="D43">
-        <v>1144.532209879767</v>
+        <v>1113.752613545308</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1044,7 +1044,7 @@
         <v>13</v>
       </c>
       <c r="D44">
-        <v>1129.938631820631</v>
+        <v>1100.490553562666</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1058,7 +1058,7 @@
         <v>14</v>
       </c>
       <c r="D45">
-        <v>2862.799249078612</v>
+        <v>2422.586488271639</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1072,7 +1072,7 @@
         <v>15</v>
       </c>
       <c r="D46">
-        <v>1140.809543968863</v>
+        <v>1115.672968423498</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1086,7 +1086,7 @@
         <v>16</v>
       </c>
       <c r="D47">
-        <v>1111.706111254997</v>
+        <v>1085.442715516065</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1100,7 +1100,7 @@
         <v>17</v>
       </c>
       <c r="D48">
-        <v>852.3928473375229</v>
+        <v>825.4099655802144</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1114,7 +1114,7 @@
         <v>18</v>
       </c>
       <c r="D49">
-        <v>2885.226381362424</v>
+        <v>2744.27167805625</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1128,7 +1128,7 @@
         <v>11</v>
       </c>
       <c r="D50">
-        <v>1390.623041731496</v>
+        <v>1366.807833478732</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1142,7 +1142,7 @@
         <v>12</v>
       </c>
       <c r="D51">
-        <v>1106.050307388355</v>
+        <v>1082.091147886649</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1156,7 +1156,7 @@
         <v>13</v>
       </c>
       <c r="D52">
-        <v>1126.797786135329</v>
+        <v>1098.497183297046</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1170,7 +1170,7 @@
         <v>14</v>
       </c>
       <c r="D53">
-        <v>2666.702444012024</v>
+        <v>2798.270127038731</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1184,7 +1184,7 @@
         <v>15</v>
       </c>
       <c r="D54">
-        <v>1106.059305252979</v>
+        <v>1082.104975403553</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1198,7 +1198,7 @@
         <v>16</v>
       </c>
       <c r="D55">
-        <v>1101.744435803643</v>
+        <v>1077.199566211381</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1212,7 +1212,7 @@
         <v>17</v>
       </c>
       <c r="D56">
-        <v>816.9336374218522</v>
+        <v>791.8999283092453</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1226,7 +1226,7 @@
         <v>18</v>
       </c>
       <c r="D57">
-        <v>2657.704868478206</v>
+        <v>2799.455894945906</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1240,7 +1240,7 @@
         <v>11</v>
       </c>
       <c r="D58">
-        <v>1367.092585165589</v>
+        <v>1343.334385634186</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1254,7 +1254,7 @@
         <v>12</v>
       </c>
       <c r="D59">
-        <v>1083.188163378497</v>
+        <v>1059.165654899831</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1268,7 +1268,7 @@
         <v>13</v>
       </c>
       <c r="D60">
-        <v>1100.212109040241</v>
+        <v>1073.070768883828</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1282,7 +1282,7 @@
         <v>14</v>
       </c>
       <c r="D61">
-        <v>2584.446224810447</v>
+        <v>2710.831493929742</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1296,7 +1296,7 @@
         <v>15</v>
       </c>
       <c r="D62">
-        <v>1106.974944479376</v>
+        <v>1082.977114759379</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1310,7 +1310,7 @@
         <v>16</v>
       </c>
       <c r="D63">
-        <v>1078.67895512131</v>
+        <v>1054.173615166062</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1324,7 +1324,7 @@
         <v>17</v>
       </c>
       <c r="D64">
-        <v>817.9814179690566</v>
+        <v>793.3911084705493</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1338,7 +1338,7 @@
         <v>18</v>
       </c>
       <c r="D65">
-        <v>2575.79232351206</v>
+        <v>2712.043527388299</v>
       </c>
     </row>
   </sheetData>
